--- a/基本設計/テーブル定義書.xlsx
+++ b/基本設計/テーブル定義書.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokor\OneDrive\デスクトップ\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CC1BE-8C42-412B-870F-FDE04E25BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD16767-5C85-45A6-B5D9-516277213A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
     <sheet name="参加者簿" sheetId="164" r:id="rId2"/>
+    <sheet name="イベント簿" sheetId="166" r:id="rId3"/>
+    <sheet name="イベント参加確認簿" sheetId="167" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="117">
   <si>
     <t>説明／備考</t>
   </si>
@@ -132,16 +134,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>顧客管理</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>テーブル名日本語</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -260,13 +252,6 @@
       <t>コガ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>顧客ID</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>id</t>
@@ -569,6 +554,250 @@
 M1は５、M2は6</t>
     <rPh sb="4" eb="6">
       <t>ガクネン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加者</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベント簿</t>
+    <rPh sb="4" eb="5">
+      <t>ボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>events</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントの情報を格納するテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加者ID</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>event_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベント名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>event_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開催月</t>
+    <rPh sb="0" eb="3">
+      <t>カイサイツキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開催日</t>
+    <rPh sb="0" eb="3">
+      <t>カイサイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加人数</t>
+    <rPh sb="0" eb="4">
+      <t>サンカニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントの名前
+大文字小文字を区別しない</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="14">
+      <t>オオモジコモジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベント開催の住所
+大文字小文字を区別しない</t>
+    <rPh sb="4" eb="6">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントの開催月
+大文字小文字を区別しない</t>
+    <rPh sb="5" eb="8">
+      <t>カイサイツキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントの開催日
+大文字小文字を区別しない</t>
+    <rPh sb="5" eb="8">
+      <t>カイサイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントの参加人数。</t>
+    <rPh sb="5" eb="9">
+      <t>サンカニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントの削除フラグ表示
+有効が0、無効が1</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベント参加確認</t>
+    <rPh sb="4" eb="8">
+      <t>サンカカクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベント参加確認簿</t>
+    <rPh sb="4" eb="9">
+      <t>サンカカクニンボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user_events</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加者のイベント参加情報を格納するテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加確認ID</t>
+    <rPh sb="0" eb="4">
+      <t>サンカカクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参加者ID </t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加者のID</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イベントのID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>情報の登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トウロクニチジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1282,6 +1511,60 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,60 +1591,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1872,9 +2101,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
@@ -2453,13 +2685,13 @@
     <row r="8" spans="1:176" ht="13" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
       <c r="F8" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -2491,13 +2723,13 @@
     <row r="9" spans="1:176" ht="13" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="69"/>
       <c r="F9" s="73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
@@ -2755,7 +2987,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
@@ -2950,7 +3182,7 @@
     <row r="23" spans="1:32" ht="13" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -3018,19 +3250,19 @@
     <row r="25" spans="1:32" ht="13" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
       <c r="I25" s="55"/>
       <c r="J25" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" s="54"/>
       <c r="L25" s="54"/>
@@ -3051,10 +3283,10 @@
       <c r="AA25" s="54"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="55" t="s">
         <v>31</v>
-      </c>
-      <c r="AD25" s="55" t="s">
-        <v>32</v>
       </c>
       <c r="AE25" s="43"/>
       <c r="AF25" s="48"/>
@@ -3062,7 +3294,7 @@
     <row r="26" spans="1:32" ht="13" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
@@ -3074,7 +3306,7 @@
       <c r="H26" s="80"/>
       <c r="I26" s="81"/>
       <c r="J26" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
@@ -3095,10 +3327,10 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD26" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE26" s="43"/>
       <c r="AF26" s="48"/>
@@ -3706,7 +3938,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3729,57 +3961,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86" t="s">
+      <c r="D1" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
       <c r="L2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="35">
         <v>45399</v>
@@ -3787,48 +4019,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="89"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94"/>
     </row>
     <row r="5" spans="1:19" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3851,11 +4083,11 @@
         <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>4</v>
@@ -3869,10 +4101,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="105"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3891,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>18</v>
@@ -3906,29 +4138,29 @@
         <v>0</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="L7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="107"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
       <c r="S7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1">
@@ -3936,13 +4168,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="26">
         <v>100</v>
@@ -3954,21 +4186,21 @@
         <v>19</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="109"/>
+        <v>47</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="100"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -3978,13 +4210,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="26">
         <v>100</v>
@@ -3996,21 +4228,21 @@
         <v>19</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="84"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -4020,13 +4252,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="26">
         <v>100</v>
@@ -4038,21 +4270,21 @@
         <v>19</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="84"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -4062,13 +4294,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="26">
         <v>100</v>
@@ -4080,21 +4312,21 @@
         <v>19</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="84"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -4104,10 +4336,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>18</v>
@@ -4122,21 +4354,21 @@
         <v>19</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="84"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -4146,10 +4378,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>18</v>
@@ -4164,21 +4396,21 @@
         <v>19</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="84"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -4188,10 +4420,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>18</v>
@@ -4206,21 +4438,21 @@
         <v>19</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L14" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="84"/>
       <c r="N14" s="28"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -4230,10 +4462,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>18</v>
@@ -4248,21 +4480,21 @@
         <v>19</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="84"/>
       <c r="N15" s="28"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -4272,39 +4504,39 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="F16" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="84"/>
       <c r="N16" s="28"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -4314,45 +4546,52 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="93"/>
+        <v>47</v>
+      </c>
+      <c r="L17" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="84"/>
       <c r="N17" s="28"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
@@ -4367,13 +4606,6 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
@@ -4385,4 +4617,905 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D5122E-B863-4C48-9187-DD57F70A7237}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.6328125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="4" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.36328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="6.90625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="35">
+        <v>45399</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="109"/>
+      <c r="P2" s="107"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.25" customHeight="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="26">
+        <v>100</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="98"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="29"/>
+      <c r="S7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="26">
+        <v>100</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="100"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A9" s="22">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="26">
+        <v>100</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="84"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="26">
+        <v>100</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="84"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="26">
+        <v>100</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="84"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="26">
+        <v>255</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="84"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A13" s="22">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="84"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:J13" xr:uid="{B26A3609-4D8C-4585-BDEB-31D52CE592CE}">
+      <formula1>$S$6:$S$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0ACF98-BD02-49FF-8CDF-8FB4ED2DE70B}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.6328125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="4" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.36328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="6.90625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="35">
+        <v>45399</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="109"/>
+      <c r="P2" s="107"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A3" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.25" customHeight="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="26">
+        <v>100</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="98"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="29"/>
+      <c r="S7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="26">
+        <v>100</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="100"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:19" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="32">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="26">
+        <v>100</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="84"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" ht="31.5" customHeight="1">
+      <c r="A10" s="32">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="84"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:J10" xr:uid="{F90CCFBC-DF52-4EBE-BDA3-3D7B3CF11ACF}">
+      <formula1>$S$6:$S$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>